--- a/data/n2v/tables/model-1-1536-20230829-32.xlsx
+++ b/data/n2v/tables/model-1-1536-20230829-32.xlsx
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="C784" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         </is>
       </c>
       <c r="C807" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -15238,7 +15238,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         </is>
       </c>
       <c r="C831" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         </is>
       </c>
       <c r="C850" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         </is>
       </c>
       <c r="C866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="C869" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
         </is>
       </c>
       <c r="C906" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         </is>
       </c>
       <c r="C927" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         </is>
       </c>
       <c r="C942" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -17416,7 +17416,7 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="C949" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="C951" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -17578,7 +17578,7 @@
         </is>
       </c>
       <c r="C953" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
         </is>
       </c>
       <c r="C967" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="C969" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="C970" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -19684,7 +19684,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -19828,7 +19828,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -19918,7 +19918,7 @@
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -20098,7 +20098,7 @@
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -20134,7 +20134,7 @@
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
@@ -20674,7 +20674,7 @@
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
@@ -21358,7 +21358,7 @@
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1163" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
@@ -21502,7 +21502,7 @@
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -21664,7 +21664,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -21682,7 +21682,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1182" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -21754,7 +21754,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
@@ -22078,7 +22078,7 @@
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1204" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
@@ -22618,7 +22618,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         </is>
       </c>
       <c r="C1235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1235" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="C1236" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1236" t="inlineStr">
         <is>
@@ -22690,7 +22690,7 @@
         </is>
       </c>
       <c r="C1237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1237" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="C1238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1238" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         </is>
       </c>
       <c r="C1239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1239" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         </is>
       </c>
       <c r="C1241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1241" t="inlineStr">
         <is>
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         </is>
       </c>
       <c r="C1243" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1243" t="inlineStr">
         <is>
@@ -22834,7 +22834,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         </is>
       </c>
       <c r="C1248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1248" t="inlineStr">
         <is>
@@ -22906,7 +22906,7 @@
         </is>
       </c>
       <c r="C1249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1249" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1252" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="C1254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="C1255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
@@ -23032,7 +23032,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         </is>
       </c>
       <c r="C1257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="C1258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
         </is>
       </c>
       <c r="C1259" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         </is>
       </c>
       <c r="C1263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="C1264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="C1266" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         </is>
       </c>
       <c r="C1278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         </is>
       </c>
       <c r="C1280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         </is>
       </c>
       <c r="C1283" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="C1290" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
@@ -23698,7 +23698,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -23734,7 +23734,7 @@
         </is>
       </c>
       <c r="C1295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1295" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="C1298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         </is>
       </c>
       <c r="C1303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="C1308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         </is>
       </c>
       <c r="C1310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
@@ -24022,7 +24022,7 @@
         </is>
       </c>
       <c r="C1311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         </is>
       </c>
       <c r="C1315" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         </is>
       </c>
       <c r="C1318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
@@ -24202,7 +24202,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="C1322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         </is>
       </c>
       <c r="C1332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         </is>
       </c>
       <c r="C1335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         </is>
       </c>
       <c r="C1342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         </is>
       </c>
       <c r="C1345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
@@ -24688,7 +24688,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -24742,7 +24742,7 @@
         </is>
       </c>
       <c r="C1351" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         </is>
       </c>
       <c r="C1352" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         </is>
       </c>
       <c r="C1357" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         </is>
       </c>
       <c r="C1360" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
@@ -24958,7 +24958,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         </is>
       </c>
       <c r="C1365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
@@ -25048,7 +25048,7 @@
         </is>
       </c>
       <c r="C1368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         </is>
       </c>
       <c r="C1373" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
         </is>
       </c>
       <c r="C1380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         </is>
       </c>
       <c r="C1383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="C1389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         </is>
       </c>
       <c r="C1391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         </is>
       </c>
       <c r="C1393" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         </is>
       </c>
       <c r="C1395" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
@@ -25552,7 +25552,7 @@
         </is>
       </c>
       <c r="C1396" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         </is>
       </c>
       <c r="C1398" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1398" t="inlineStr">
         <is>
@@ -25606,7 +25606,7 @@
         </is>
       </c>
       <c r="C1399" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         </is>
       </c>
       <c r="C1400" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="C1402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="C1415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
@@ -25912,7 +25912,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -26074,7 +26074,7 @@
         </is>
       </c>
       <c r="C1425" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
@@ -26128,7 +26128,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         </is>
       </c>
       <c r="C1439" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
@@ -26398,7 +26398,7 @@
         </is>
       </c>
       <c r="C1443" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="C1454" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26668,7 +26668,7 @@
         </is>
       </c>
       <c r="C1458" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
@@ -26704,7 +26704,7 @@
         </is>
       </c>
       <c r="C1460" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         </is>
       </c>
       <c r="C1470" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1482" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
         </is>
       </c>
       <c r="C1500" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         </is>
       </c>
       <c r="C1536" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1536" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="C1538" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1538" t="inlineStr">
         <is>
@@ -28198,7 +28198,7 @@
         </is>
       </c>
       <c r="C1543" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1543" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         </is>
       </c>
       <c r="C1544" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1544" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         </is>
       </c>
       <c r="C1546" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1546" t="inlineStr">
         <is>
@@ -28540,7 +28540,7 @@
         </is>
       </c>
       <c r="C1562" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1562" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         </is>
       </c>
       <c r="C1569" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1569" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         </is>
       </c>
       <c r="C1577" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1577" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         </is>
       </c>
       <c r="C1581" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1581" t="inlineStr">
         <is>
